--- a/03_tldr/04_human_ratings_and_overall_results.xlsx
+++ b/03_tldr/04_human_ratings_and_overall_results.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbeit\99_opencampus\06_Kurse\15_NLP\GPT-2\03_tldr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF73373-35F2-4C6E-BBC7-F48BF986CE5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3E6778-07E5-44A1-AAE2-EF84FE8FE20B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="7" r:id="rId1"/>
-    <sheet name="Steffen" sheetId="1" r:id="rId2"/>
-    <sheet name="Jonas" sheetId="4" r:id="rId3"/>
-    <sheet name="Atul" sheetId="5" r:id="rId4"/>
-    <sheet name="Stefan" sheetId="6" r:id="rId5"/>
+    <sheet name="Results Human Raters" sheetId="7" r:id="rId1"/>
+    <sheet name="Results ROUGE Scores" sheetId="8" r:id="rId2"/>
+    <sheet name="Steffen" sheetId="1" r:id="rId3"/>
+    <sheet name="Jonas" sheetId="4" r:id="rId4"/>
+    <sheet name="Atul" sheetId="5" r:id="rId5"/>
+    <sheet name="Stefan" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -34,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="193">
   <si>
     <t>row identifier</t>
   </si>
@@ -598,6 +621,24 @@
   </si>
   <si>
     <t>GPT-3 Few-Shot</t>
+  </si>
+  <si>
+    <t>F-Score</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>ROUGE-1</t>
+  </si>
+  <si>
+    <t>ROUGE-2</t>
+  </si>
+  <si>
+    <t>ROUGE-L</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1122,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1097,6 +1138,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1253,7 +1309,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$A$2</c:f>
+              <c:f>'Results Human Raters'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1282,7 +1338,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Results!$B$1:$G$1</c:f>
+              <c:f>'Results Human Raters'!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1310,7 +1366,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$B$2:$G$2</c:f>
+              <c:f>'Results Human Raters'!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1347,7 +1403,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$A$3</c:f>
+              <c:f>'Results Human Raters'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1376,7 +1432,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Results!$B$1:$G$1</c:f>
+              <c:f>'Results Human Raters'!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1404,7 +1460,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$B$3:$G$3</c:f>
+              <c:f>'Results Human Raters'!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1441,7 +1497,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$A$4</c:f>
+              <c:f>'Results Human Raters'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1470,7 +1526,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Results!$B$1:$G$1</c:f>
+              <c:f>'Results Human Raters'!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1498,7 +1554,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$B$4:$G$4</c:f>
+              <c:f>'Results Human Raters'!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1523,7 +1579,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$A$5</c:f>
+              <c:f>'Results Human Raters'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1552,7 +1608,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Results!$B$1:$G$1</c:f>
+              <c:f>'Results Human Raters'!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1580,7 +1636,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$B$5:$G$5</c:f>
+              <c:f>'Results Human Raters'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1617,7 +1673,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$A$6</c:f>
+              <c:f>'Results Human Raters'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1646,7 +1702,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Results!$B$1:$G$1</c:f>
+              <c:f>'Results Human Raters'!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1674,7 +1730,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$B$6:$G$6</c:f>
+              <c:f>'Results Human Raters'!$B$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1707,7 +1763,578 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="632423152"/>
+        <c:axId val="632426432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="632423152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632426432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="632426432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632423152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>ROUGE-1 Scores</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> of the TL;DRs and the Abstracts</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results ROUGE Scores'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F-Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results ROUGE Scores'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3 One-Shot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-3 Few-Shot</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results ROUGE Scores'!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0384-4BF9-8C53-110020CA9CBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results ROUGE Scores'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results ROUGE Scores'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3 One-Shot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-3 Few-Shot</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results ROUGE Scores'!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0384-4BF9-8C53-110020CA9CBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results ROUGE Scores'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results ROUGE Scores'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3 One-Shot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-3 Few-Shot</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results ROUGE Scores'!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0384-4BF9-8C53-110020CA9CBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1957,7 +2584,543 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2494,6 +3657,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E99C67-8C21-48DF-A65B-4F9F80D6D4E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -2793,7 +3999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1170628-4F7A-4059-9417-1A30564262EA}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -2963,6 +4169,193 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C7CEBC-2D86-478D-B35A-298183A6732C}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="7" width="16" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="3">
+        <f>B19</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <f>Steffen!$E$27</f>
+        <v>2.6</v>
+      </c>
+      <c r="D2" s="3">
+        <f>Steffen!$G$27</f>
+        <v>1.2</v>
+      </c>
+      <c r="E2" s="3">
+        <f>Steffen!$I$27</f>
+        <v>1.84</v>
+      </c>
+      <c r="F2" s="3">
+        <f>Steffen!$K$27</f>
+        <v>0.96</v>
+      </c>
+      <c r="G2" s="3">
+        <f>Steffen!$M$27</f>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="3">
+        <f t="shared" ref="B3:B4" si="0">B20</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <f>Jonas!$E$27</f>
+        <v>1.96</v>
+      </c>
+      <c r="D3" s="3">
+        <f>Jonas!$G$27</f>
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="3">
+        <f>Jonas!$I$27</f>
+        <v>1.04</v>
+      </c>
+      <c r="F3" s="3">
+        <f>Jonas!$K$27</f>
+        <v>0.72</v>
+      </c>
+      <c r="G3" s="3">
+        <f>Jonas!$M$27</f>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <f>Atul!$E$27</f>
+        <v>1.8</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="2">
+        <f>B24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" ref="B7:B8" si="1">B25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="2" cm="1">
+        <f t="array" aca="1" ref="B10" ca="1">B6:B10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
@@ -4080,7 +5473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
@@ -5265,7 +6658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
@@ -6381,7 +7774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>

--- a/03_tldr/04_human_ratings_and_overall_results.xlsx
+++ b/03_tldr/04_human_ratings_and_overall_results.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbeit\99_opencampus\06_Kurse\15_NLP\GPT-2\03_tldr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3E6778-07E5-44A1-AAE2-EF84FE8FE20B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7BFAA1-6558-43E5-B2F7-44A081D903AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results Human Raters" sheetId="7" r:id="rId1"/>
-    <sheet name="Results ROUGE Scores" sheetId="8" r:id="rId2"/>
-    <sheet name="Steffen" sheetId="1" r:id="rId3"/>
-    <sheet name="Jonas" sheetId="4" r:id="rId4"/>
-    <sheet name="Atul" sheetId="5" r:id="rId5"/>
-    <sheet name="Stefan" sheetId="6" r:id="rId6"/>
+    <sheet name="Results ROUGE-1 Scores" sheetId="8" r:id="rId2"/>
+    <sheet name="Results ROUGE-2 Scores" sheetId="9" r:id="rId3"/>
+    <sheet name="Results ROUGE-L Scores" sheetId="10" r:id="rId4"/>
+    <sheet name="Results Recall ROUGE Scores" sheetId="11" r:id="rId5"/>
+    <sheet name="Steffen" sheetId="1" r:id="rId6"/>
+    <sheet name="Jonas" sheetId="4" r:id="rId7"/>
+    <sheet name="Atul" sheetId="5" r:id="rId8"/>
+    <sheet name="Stefan" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,30 +38,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="193">
   <si>
     <t>row identifier</t>
   </si>
@@ -1122,7 +1103,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1143,9 +1124,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2069,7 +2047,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Results ROUGE Scores'!$A$2</c:f>
+              <c:f>'Results ROUGE-1 Scores'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2098,7 +2076,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Results ROUGE Scores'!$B$1:$G$1</c:f>
+              <c:f>'Results ROUGE-1 Scores'!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2126,7 +2104,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results ROUGE Scores'!$B$2:$G$2</c:f>
+              <c:f>'Results ROUGE-1 Scores'!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2134,19 +2112,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6</c:v>
+                  <c:v>0.14268600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2</c:v>
+                  <c:v>0.13140399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.84</c:v>
+                  <c:v>0.133295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96</c:v>
+                  <c:v>0.102876</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.24</c:v>
+                  <c:v>0.112802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2163,7 +2141,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Results ROUGE Scores'!$A$3</c:f>
+              <c:f>'Results ROUGE-1 Scores'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2192,7 +2170,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Results ROUGE Scores'!$B$1:$G$1</c:f>
+              <c:f>'Results ROUGE-1 Scores'!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2220,7 +2198,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results ROUGE Scores'!$B$3:$G$3</c:f>
+              <c:f>'Results ROUGE-1 Scores'!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2228,19 +2206,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.96</c:v>
+                  <c:v>8.0542000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>7.5910000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.04</c:v>
+                  <c:v>7.8051999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72</c:v>
+                  <c:v>5.9175999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.68</c:v>
+                  <c:v>6.4373E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2257,7 +2235,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Results ROUGE Scores'!$A$4</c:f>
+              <c:f>'Results ROUGE-1 Scores'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2286,7 +2264,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Results ROUGE Scores'!$B$1:$G$1</c:f>
+              <c:f>'Results ROUGE-1 Scores'!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2314,7 +2292,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results ROUGE Scores'!$B$4:$G$4</c:f>
+              <c:f>'Results ROUGE-1 Scores'!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2322,7 +2300,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8</c:v>
+                  <c:v>0.766042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.554176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54500400000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47654000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53578000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2400,6 +2390,4440 @@
         <c:axId val="632426432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632423152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>ROUGE-2 Scores</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> of the TL;DRs and the Abstracts</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results ROUGE-2 Scores'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F-Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results ROUGE-2 Scores'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3 One-Shot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-3 Few-Shot</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results ROUGE-2 Scores'!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5379000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0276000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3752000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4575000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9260999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E833-4F31-BC84-20AED74B564E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results ROUGE-2 Scores'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results ROUGE-2 Scores'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3 One-Shot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-3 Few-Shot</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results ROUGE-2 Scores'!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3712000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9045999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1571000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9741000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7987000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E833-4F31-BC84-20AED74B564E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results ROUGE-2 Scores'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results ROUGE-2 Scores'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3 One-Shot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-3 Few-Shot</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results ROUGE-2 Scores'!$B$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55100199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20474300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21643899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23821400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E833-4F31-BC84-20AED74B564E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="632423152"/>
+        <c:axId val="632426432"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>F-Score</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$B$2:$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.14268600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.13140399999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.133295</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.102876</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.112802</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-E833-4F31-BC84-20AED74B564E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Precision</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$B$3:$G$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8.0542000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.5910000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.8051999999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.9175999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6.4373E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-E833-4F31-BC84-20AED74B564E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Recall</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$B$4:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.766042</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.554176</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.54500400000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.47654000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.53578000000000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-E833-4F31-BC84-20AED74B564E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ROUGE-2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$B$5:$G$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-E833-4F31-BC84-20AED74B564E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ROUGE-L</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$B$9:$G$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-E833-4F31-BC84-20AED74B564E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>F-Score</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$B$10:$G$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.18934200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.14380399999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.14871699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.12897400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.131157</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-E833-4F31-BC84-20AED74B564E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Precision</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$B$11:$G$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.11135299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.6601999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.9501999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.7252000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.7921000000000004E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-E833-4F31-BC84-20AED74B564E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Recall</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-2 Scores'!$B$12:$G$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.735236</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.47376200000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.48591899999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.44362000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.47160400000000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-E833-4F31-BC84-20AED74B564E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="632423152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632426432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="632426432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632423152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>ROUGE-L Scores</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> of the TL;DRs and the Abstracts</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results ROUGE-L Scores'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F-Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results ROUGE-L Scores'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3 One-Shot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-3 Few-Shot</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results ROUGE-L Scores'!$B$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18934200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14380399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14871699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12897400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.131157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-FD15-4822-B1EF-D6966B4B728F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results ROUGE-L Scores'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results ROUGE-L Scores'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3 One-Shot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-3 Few-Shot</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results ROUGE-L Scores'!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11135299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6601999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9501999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7252000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7921000000000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-FD15-4822-B1EF-D6966B4B728F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results ROUGE-L Scores'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results ROUGE-L Scores'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3 One-Shot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-3 Few-Shot</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results ROUGE-L Scores'!$B$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.735236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47376200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48591899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44362000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47160400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-FD15-4822-B1EF-D6966B4B728F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="632423152"/>
+        <c:axId val="632426432"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>F-Score</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$B$2:$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.14268600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.13140399999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.133295</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.102876</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.112802</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-FD15-4822-B1EF-D6966B4B728F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Precision</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$B$3:$G$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8.0542000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.5910000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.8051999999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.9175999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6.4373E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-FD15-4822-B1EF-D6966B4B728F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Recall</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$B$4:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.766042</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.554176</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.54500400000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.47654000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.53578000000000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-FD15-4822-B1EF-D6966B4B728F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ROUGE-2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$B$5:$G$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-FD15-4822-B1EF-D6966B4B728F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>F-Score</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$B$6:$G$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9.5379000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.0276000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.3752000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.4575000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.9260999999999999E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-FD15-4822-B1EF-D6966B4B728F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Precision</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$B$7:$G$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.3712000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.9045999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.1571000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.9741000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.7987000000000001E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-FD15-4822-B1EF-D6966B4B728F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Recall</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$B$8:$G$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.55100199999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.20474300000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.21643899999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.15428</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.23821400000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-FD15-4822-B1EF-D6966B4B728F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ROUGE-L</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results ROUGE-L Scores'!$B$9:$G$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-FD15-4822-B1EF-D6966B4B728F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="632423152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632426432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="632426432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632423152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Recall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Values for the </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>ROUGE Scores</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> of the TL;DRs and the Abstracts</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results Recall ROUGE Scores'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROUGE-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results Recall ROUGE Scores'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3 One-Shot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-3 Few-Shot</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results Recall ROUGE Scores'!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.766042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.554176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54500400000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47654000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53578000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2680-4AF8-A4CD-C78F2F54CE92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results Recall ROUGE Scores'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROUGE-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results Recall ROUGE Scores'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3 One-Shot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-3 Few-Shot</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results Recall ROUGE Scores'!$B$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55100199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20474300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21643899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23821400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2680-4AF8-A4CD-C78F2F54CE92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results Recall ROUGE Scores'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROUGE-L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results Recall ROUGE Scores'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3 One-Shot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-3 Few-Shot</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results Recall ROUGE Scores'!$B$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.735236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47376200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48591899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44362000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47160400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2680-4AF8-A4CD-C78F2F54CE92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="632423152"/>
+        <c:axId val="632426432"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>F-Score</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$B$2:$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.14268600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.13140399999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.133295</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.102876</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.112802</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-2680-4AF8-A4CD-C78F2F54CE92}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Precision</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$B$3:$G$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8.0542000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.5910000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.8051999999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.9175999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6.4373E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-2680-4AF8-A4CD-C78F2F54CE92}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ROUGE-2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$B$5:$G$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-2680-4AF8-A4CD-C78F2F54CE92}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>F-Score</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$B$6:$G$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9.5379000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.0276000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.3752000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.4575000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.9260999999999999E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-2680-4AF8-A4CD-C78F2F54CE92}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Precision</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$B$7:$G$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.3712000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.9045999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.1571000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.9741000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.7987000000000001E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-2680-4AF8-A4CD-C78F2F54CE92}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ROUGE-L</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$B$9:$G$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-2680-4AF8-A4CD-C78F2F54CE92}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>F-Score</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$B$10:$G$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.18934200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.14380399999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.14871699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.12897400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.131157</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-2680-4AF8-A4CD-C78F2F54CE92}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Precision</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>GPT-3 One-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>GPT-3 Few-Shot</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GPT-2 One-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>GPT-2 Few-Shot (Abstracts)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPT-2 One-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>GPT-2 Few-Shot
+(Full Text)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Results Recall ROUGE Scores'!$B$11:$G$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.11135299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.6601999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.9501999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.7252000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.7921000000000004E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-2680-4AF8-A4CD-C78F2F54CE92}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="632423152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632426432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="632426432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2585,6 +7009,126 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3616,6 +8160,1494 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3662,15 +9694,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3678,6 +9710,135 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E99C67-8C21-48DF-A65B-4F9F80D6D4E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652D2D4A-3C08-45E1-B7AF-32DA76936A8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2E8009-E278-450D-B562-2629003E02C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B407B659-0D08-488D-B9BE-07D833FE7714}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4172,8 +10333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C7CEBC-2D86-478D-B35A-298183A6732C}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4182,8 +10343,8 @@
     <col min="2" max="7" width="16" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -4210,28 +10371,22 @@
         <v>187</v>
       </c>
       <c r="B2" s="3">
-        <f>B19</f>
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <f>Steffen!$E$27</f>
-        <v>2.6</v>
+        <v>0.14268600000000001</v>
       </c>
       <c r="D2" s="3">
-        <f>Steffen!$G$27</f>
-        <v>1.2</v>
+        <v>0.13140399999999999</v>
       </c>
       <c r="E2" s="3">
-        <f>Steffen!$I$27</f>
-        <v>1.84</v>
+        <v>0.133295</v>
       </c>
       <c r="F2" s="3">
-        <f>Steffen!$K$27</f>
-        <v>0.96</v>
+        <v>0.102876</v>
       </c>
       <c r="G2" s="3">
-        <f>Steffen!$M$27</f>
-        <v>1.24</v>
+        <v>0.112802</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4239,28 +10394,22 @@
         <v>188</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B4" si="0">B20</f>
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <f>Jonas!$E$27</f>
-        <v>1.96</v>
+        <v>8.0542000000000002E-2</v>
       </c>
       <c r="D3" s="3">
-        <f>Jonas!$G$27</f>
-        <v>0.8</v>
+        <v>7.5910000000000005E-2</v>
       </c>
       <c r="E3" s="3">
-        <f>Jonas!$I$27</f>
-        <v>1.04</v>
+        <v>7.8051999999999996E-2</v>
       </c>
       <c r="F3" s="3">
-        <f>Jonas!$K$27</f>
-        <v>0.72</v>
+        <v>5.9175999999999999E-2</v>
       </c>
       <c r="G3" s="3">
-        <f>Jonas!$M$27</f>
-        <v>0.68</v>
+        <v>6.4373E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4268,20 +10417,26 @@
         <v>189</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <f>Atul!$E$27</f>
-        <v>1.8</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+        <v>0.766042</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.554176</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.54500400000000004</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.47654000000000002</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.53578000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B5" s="7"/>
@@ -4295,57 +10450,149 @@
       <c r="A6" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="2">
-        <f>B24</f>
-        <v>0</v>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.5379000000000005E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.0276000000000001E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5.3752000000000001E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.4575000000000002E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.9260999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="2">
-        <f t="shared" ref="B7:B8" si="1">B25</f>
-        <v>0</v>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.3712000000000003E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.9045999999999999E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.1571000000000002E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.9741000000000002E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.7987000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.55100199999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.20474300000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.21643899999999999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.15428</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.23821400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="2" cm="1">
-        <f t="array" aca="1" ref="B10" ca="1">B6:B10</f>
-        <v>0</v>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.18934200000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.14380399999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.14871699999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.12897400000000001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.131157</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>188</v>
       </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.11135299999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8.6601999999999998E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>8.9501999999999998E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7.7252000000000001E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7.7921000000000004E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>189</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.735236</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.47376200000000002</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.48591899999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.44362000000000001</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.47160400000000002</v>
       </c>
     </row>
   </sheetData>
@@ -4356,6 +10603,825 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858EAA5C-F666-4374-9AC9-5C992DD6398A}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="7" width="16" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.14268600000000001</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.13140399999999999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.133295</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.102876</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.112802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8.0542000000000002E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7.5910000000000005E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>7.8051999999999996E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5.9175999999999999E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>6.4373E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.766042</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.554176</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.54500400000000004</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.47654000000000002</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.53578000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.5379000000000005E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.0276000000000001E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5.3752000000000001E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.4575000000000002E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.9260999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.3712000000000003E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.9045999999999999E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.1571000000000002E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.9741000000000002E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.7987000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.55100199999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.20474300000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.21643899999999999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.15428</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.23821400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.18934200000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.14380399999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.14871699999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.12897400000000001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.131157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.11135299999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8.6601999999999998E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>8.9501999999999998E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7.7252000000000001E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7.7921000000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.735236</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.47376200000000002</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.48591899999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.44362000000000001</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.47160400000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBE98DD-58BC-4953-B1D5-E038C7824747}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="7" width="16" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.14268600000000001</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.13140399999999999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.133295</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.102876</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.112802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8.0542000000000002E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7.5910000000000005E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>7.8051999999999996E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5.9175999999999999E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>6.4373E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.766042</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.554176</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.54500400000000004</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.47654000000000002</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.53578000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.5379000000000005E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.0276000000000001E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5.3752000000000001E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.4575000000000002E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.9260999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.3712000000000003E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.9045999999999999E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.1571000000000002E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.9741000000000002E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.7987000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.55100199999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.20474300000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.21643899999999999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.15428</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.23821400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.18934200000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.14380399999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.14871699999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.12897400000000001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.131157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.11135299999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8.6601999999999998E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>8.9501999999999998E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7.7252000000000001E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7.7921000000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.735236</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.47376200000000002</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.48591899999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.44362000000000001</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.47160400000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F639FB-2C71-48B5-958A-ADF322B863FD}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="7" width="16" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.14268600000000001</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.13140399999999999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.133295</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.102876</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.112802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8.0542000000000002E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7.5910000000000005E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>7.8051999999999996E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5.9175999999999999E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>6.4373E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.766042</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.554176</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.54500400000000004</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.47654000000000002</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.53578000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.5379000000000005E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.0276000000000001E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5.3752000000000001E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.4575000000000002E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.9260999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.3712000000000003E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.9045999999999999E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.1571000000000002E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.9741000000000002E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.7987000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.55100199999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.20474300000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.21643899999999999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.15428</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.23821400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.18934200000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.14380399999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.14871699999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.12897400000000001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.131157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.11135299999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8.6601999999999998E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>8.9501999999999998E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7.7252000000000001E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7.7921000000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.735236</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.47376200000000002</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.48591899999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.44362000000000001</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.47160400000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
@@ -5473,7 +12539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
@@ -6658,7 +13724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
@@ -7774,7 +14840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
